--- a/input/comp_mrs_db_dog.xlsx
+++ b/input/comp_mrs_db_dog.xlsx
@@ -551,7 +551,7 @@
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Cutaneous T‐cell Lymphoma</t>
+          <t>Cutaneous T-cell Lymphoma</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">

--- a/input/comp_mrs_db_dog.xlsx
+++ b/input/comp_mrs_db_dog.xlsx
@@ -737,7 +737,7 @@
         <v>0.07266271332963334</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.0698771864619676</v>
+        <v>0.06926169836713743</v>
       </c>
       <c r="AL2" t="n">
         <v>-11.7593222248522</v>
@@ -979,7 +979,7 @@
         <v>0.2502810135289197</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.5151389990516401</v>
+        <v>0.5133108883317492</v>
       </c>
       <c r="AL4" t="n">
         <v>-9.588571811947473</v>
@@ -1100,7 +1100,7 @@
         <v>0.1501479957848963</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.1170120111459167</v>
+        <v>0.1127443974384373</v>
       </c>
       <c r="AL5" t="n">
         <v>-11.62308959786551</v>
@@ -1342,7 +1342,7 @@
         <v>0.06158194480999297</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.1749582825388154</v>
+        <v>0.1589923842336786</v>
       </c>
       <c r="AL7" t="n">
         <v>-9.977139786237682</v>
@@ -1463,7 +1463,7 @@
         <v>0.25151161034134</v>
       </c>
       <c r="AK8" t="n">
-        <v>1.115137601408287</v>
+        <v>1.11572727492984</v>
       </c>
       <c r="AL8" t="n">
         <v>-9.177366221063243</v>
@@ -1584,7 +1584,7 @@
         <v>-0.1690909868415308</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.1191066280433973</v>
+        <v>0.05187550504318959</v>
       </c>
       <c r="AL9" t="n">
         <v>-12.75338850422631</v>
@@ -1705,7 +1705,7 @@
         <v>0.05795441806135042</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.2126415835775419</v>
+        <v>0.1859988056220597</v>
       </c>
       <c r="AL10" t="n">
         <v>-11.11417087530666</v>
@@ -1826,7 +1826,7 @@
         <v>0.2551242350281372</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.9472397186988336</v>
+        <v>0.9269315712255368</v>
       </c>
       <c r="AL11" t="n">
         <v>-10.00104715613588</v>
@@ -1947,7 +1947,7 @@
         <v>0.1005911473269495</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.2895889417225349</v>
+        <v>0.2191730765526122</v>
       </c>
       <c r="AL12" t="n">
         <v>-11.17413998427603</v>
@@ -2068,7 +2068,7 @@
         <v>-0.06105438824678395</v>
       </c>
       <c r="AK13" t="n">
-        <v>-0.2959511608492496</v>
+        <v>-0.4432130382515084</v>
       </c>
       <c r="AL13" t="n">
         <v>-12.24689581688748</v>
@@ -2310,7 +2310,7 @@
         <v>0.1539807218308993</v>
       </c>
       <c r="AK15" t="n">
-        <v>-0.2375436389067646</v>
+        <v>-0.2442516445297177</v>
       </c>
       <c r="AL15" t="n">
         <v>-8.451166396474795</v>
@@ -2794,7 +2794,7 @@
         <v>0.2600695389083036</v>
       </c>
       <c r="AK19" t="n">
-        <v>0.9366606424331219</v>
+        <v>0.8750846915268385</v>
       </c>
       <c r="AL19" t="n">
         <v>-11.40806703865609</v>
@@ -2915,7 +2915,7 @@
         <v>-0.09412395573830512</v>
       </c>
       <c r="AK20" t="n">
-        <v>0.1368919911036252</v>
+        <v>-0.1702074627298488</v>
       </c>
       <c r="AL20" t="n">
         <v>-11.14960785993486</v>
@@ -3036,7 +3036,7 @@
         <v>-0.007481135876674387</v>
       </c>
       <c r="AK21" t="n">
-        <v>-0.001155407944183209</v>
+        <v>-0.003469305910314809</v>
       </c>
       <c r="AL21" t="n">
         <v>-12.82650814211323</v>
@@ -3157,7 +3157,7 @@
         <v>0.1077554255732119</v>
       </c>
       <c r="AK22" t="n">
-        <v>0.5083999920362099</v>
+        <v>0.4934518945486912</v>
       </c>
       <c r="AL22" t="n">
         <v>-11.05365854488897</v>
@@ -3399,7 +3399,7 @@
         <v>-0.0002666945870196709</v>
       </c>
       <c r="AK24" t="n">
-        <v>-0.1709709897082846</v>
+        <v>-1.972166678823926</v>
       </c>
       <c r="AL24" t="n">
         <v>-10.99034054021454</v>
@@ -3520,7 +3520,7 @@
         <v>0.05306878459793927</v>
       </c>
       <c r="AK25" t="n">
-        <v>-0.9853875303656798</v>
+        <v>-1.087972011552671</v>
       </c>
       <c r="AL25" t="n">
         <v>-7.243676507309633</v>
@@ -3641,7 +3641,7 @@
         <v>0.02234759951019036</v>
       </c>
       <c r="AK26" t="n">
-        <v>-0.02145246051750591</v>
+        <v>-0.1960190910187525</v>
       </c>
       <c r="AL26" t="n">
         <v>-12.6627841661494</v>
@@ -3883,7 +3883,7 @@
         <v>-0.1015215479687227</v>
       </c>
       <c r="AK28" t="n">
-        <v>-0.9075248044679389</v>
+        <v>-1.240597241501376</v>
       </c>
       <c r="AL28" t="n">
         <v>-10.65172517400161</v>
@@ -4004,7 +4004,7 @@
         <v>-0.02626326986210848</v>
       </c>
       <c r="AK29" t="n">
-        <v>-0.2331683705979276</v>
+        <v>-0.2991128741876304</v>
       </c>
       <c r="AL29" t="n">
         <v>-10.59881515340415</v>
@@ -4125,7 +4125,7 @@
         <v>0.2337376841302361</v>
       </c>
       <c r="AK30" t="n">
-        <v>0.4111902768493249</v>
+        <v>0.4085145584359414</v>
       </c>
       <c r="AL30" t="n">
         <v>-12.94234416634632</v>
@@ -4246,7 +4246,7 @@
         <v>0.03506494125532367</v>
       </c>
       <c r="AK31" t="n">
-        <v>0.6186855313494377</v>
+        <v>0.6241274801307243</v>
       </c>
       <c r="AL31" t="n">
         <v>-9.998707088215102</v>
@@ -4367,7 +4367,7 @@
         <v>0.1851099426811437</v>
       </c>
       <c r="AK32" t="n">
-        <v>0.009672417900044875</v>
+        <v>0.008275432386746408</v>
       </c>
       <c r="AL32" t="n">
         <v>-13.28553285853533</v>
@@ -4488,7 +4488,7 @@
         <v>-0.04445006173401439</v>
       </c>
       <c r="AK33" t="n">
-        <v>0.1225007688493</v>
+        <v>0.09354480023006469</v>
       </c>
       <c r="AL33" t="n">
         <v>-12.36817560543482</v>
@@ -4609,7 +4609,7 @@
         <v>0.09263953195417346</v>
       </c>
       <c r="AK34" t="n">
-        <v>-0.06024637775229447</v>
+        <v>-0.8228931488316266</v>
       </c>
       <c r="AL34" t="n">
         <v>-6.525790836593139</v>
@@ -4851,7 +4851,7 @@
         <v>0.03091123067155705</v>
       </c>
       <c r="AK36" t="n">
-        <v>0.6899198882630246</v>
+        <v>0.7008667685577774</v>
       </c>
       <c r="AL36" t="n">
         <v>-11.71300024367512</v>
@@ -4972,7 +4972,7 @@
         <v>0.0567344737783597</v>
       </c>
       <c r="AK37" t="n">
-        <v>0.01606341690152326</v>
+        <v>-0.1259468601743914</v>
       </c>
       <c r="AL37" t="n">
         <v>-9.49869652494948</v>
@@ -5093,7 +5093,7 @@
         <v>0.09913830123284954</v>
       </c>
       <c r="AK38" t="n">
-        <v>-0.4182121139976103</v>
+        <v>-0.4235853852459345</v>
       </c>
       <c r="AL38" t="n">
         <v>-11.50883810638006</v>
@@ -5214,7 +5214,7 @@
         <v>0.1245367664366711</v>
       </c>
       <c r="AK39" t="n">
-        <v>0.5341749287442871</v>
+        <v>0.5328945785188893</v>
       </c>
       <c r="AL39" t="n">
         <v>-10.50942092405035</v>
@@ -5335,7 +5335,7 @@
         <v>0.0007221732890485396</v>
       </c>
       <c r="AK40" t="n">
-        <v>-1.443450625002887</v>
+        <v>-2.04010234783437</v>
       </c>
       <c r="AL40" t="n">
         <v>-13.47950353565217</v>
@@ -5456,7 +5456,7 @@
         <v>-0.02972770508385903</v>
       </c>
       <c r="AK41" t="n">
-        <v>-1.399155453096609</v>
+        <v>-2.174523349698429</v>
       </c>
       <c r="AL41" t="n">
         <v>-12.91531569771551</v>
@@ -5698,7 +5698,7 @@
         <v>0.1838995189745202</v>
       </c>
       <c r="AK43" t="n">
-        <v>0.4213129876704639</v>
+        <v>0.4204175717376188</v>
       </c>
       <c r="AL43" t="n">
         <v>-9.831264921291664</v>
@@ -6061,7 +6061,7 @@
         <v>0.1579692274202947</v>
       </c>
       <c r="AK46" t="n">
-        <v>-0.7955954178708514</v>
+        <v>-0.7970124593326228</v>
       </c>
       <c r="AL46" t="n">
         <v>-12.17836637337119</v>
@@ -6182,7 +6182,7 @@
         <v>-0.02000160997978494</v>
       </c>
       <c r="AK47" t="n">
-        <v>-0.2212376533061072</v>
+        <v>-0.3513754254930812</v>
       </c>
       <c r="AL47" t="n">
         <v>-6.722520401440502</v>
@@ -6303,7 +6303,7 @@
         <v>0.09002268137020791</v>
       </c>
       <c r="AK48" t="n">
-        <v>-1.411373788678332</v>
+        <v>-1.688852682012541</v>
       </c>
       <c r="AL48" t="n">
         <v>-10.34890957427704</v>
@@ -6424,7 +6424,7 @@
         <v>0.1715814565692732</v>
       </c>
       <c r="AK49" t="n">
-        <v>0.3407665652439933</v>
+        <v>0.3397165551053185</v>
       </c>
       <c r="AL49" t="n">
         <v>-6.886174059002296</v>
@@ -6545,7 +6545,7 @@
         <v>-0.09093580994840726</v>
       </c>
       <c r="AK50" t="n">
-        <v>-1.423040330698407</v>
+        <v>-1.663711016068243</v>
       </c>
       <c r="AL50" t="n">
         <v>-11.3185129821365</v>
@@ -6787,7 +6787,7 @@
         <v>-0.2077082796478813</v>
       </c>
       <c r="AK52" t="n">
-        <v>-0.663193638520771</v>
+        <v>-0.8199392948410563</v>
       </c>
       <c r="AL52" t="n">
         <v>-12.57711222015901</v>
@@ -6908,7 +6908,7 @@
         <v>0.2569478745805414</v>
       </c>
       <c r="AK53" t="n">
-        <v>-0.03817039198328421</v>
+        <v>-0.1849290071183466</v>
       </c>
       <c r="AL53" t="n">
         <v>-8.079684942188528</v>
@@ -7029,7 +7029,7 @@
         <v>0.1816933742245348</v>
       </c>
       <c r="AK54" t="n">
-        <v>0.01019918897081136</v>
+        <v>-0.00330345636574594</v>
       </c>
       <c r="AL54" t="n">
         <v>-11.2134410767811</v>
@@ -7150,7 +7150,7 @@
         <v>0.1819110967609791</v>
       </c>
       <c r="AK55" t="n">
-        <v>0.007461609373761405</v>
+        <v>0.004969667249321938</v>
       </c>
       <c r="AL55" t="n">
         <v>-9.533136676239527</v>
@@ -7271,7 +7271,7 @@
         <v>0.1111309514097872</v>
       </c>
       <c r="AK56" t="n">
-        <v>-0.8869775976582706</v>
+        <v>-0.888609120227366</v>
       </c>
       <c r="AL56" t="n">
         <v>-7.914896659987047</v>
@@ -7513,7 +7513,7 @@
         <v>0.2903406134603872</v>
       </c>
       <c r="AK58" t="n">
-        <v>0.3317203734138236</v>
+        <v>0.3092426912330473</v>
       </c>
       <c r="AL58" t="n">
         <v>-7.46346555643143</v>
@@ -7634,7 +7634,7 @@
         <v>0.0001785114789394253</v>
       </c>
       <c r="AK59" t="n">
-        <v>-1.948964306716397</v>
+        <v>-3.080117332062254</v>
       </c>
       <c r="AL59" t="n">
         <v>-11.40970585399761</v>
@@ -7755,7 +7755,7 @@
         <v>0.0008794397853806598</v>
       </c>
       <c r="AK60" t="n">
-        <v>-2.418601033008305</v>
+        <v>-3.109619734100242</v>
       </c>
       <c r="AL60" t="n">
         <v>-12.17128117978374</v>
@@ -8239,7 +8239,7 @@
         <v>0.2700738201972069</v>
       </c>
       <c r="AK64" t="n">
-        <v>0.7026675831896547</v>
+        <v>0.699857151574513</v>
       </c>
       <c r="AL64" t="n">
         <v>-7.322769457503619</v>
@@ -8360,7 +8360,7 @@
         <v>0.09150980768016342</v>
       </c>
       <c r="AK65" t="n">
-        <v>0.01728257336353747</v>
+        <v>0.01509391539316502</v>
       </c>
       <c r="AL65" t="n">
         <v>-8.550008307869977</v>
@@ -8481,7 +8481,7 @@
         <v>0.1076508695620903</v>
       </c>
       <c r="AK66" t="n">
-        <v>0.3334557796255426</v>
+        <v>0.3279433050087912</v>
       </c>
       <c r="AL66" t="n">
         <v>-8.737354212697953</v>
@@ -8602,7 +8602,7 @@
         <v>0.3160423877674182</v>
       </c>
       <c r="AK67" t="n">
-        <v>0.9670899489760165</v>
+        <v>0.9623864375566633</v>
       </c>
       <c r="AL67" t="n">
         <v>-8.202420257616994</v>
@@ -8723,7 +8723,7 @@
         <v>0.1850021998328497</v>
       </c>
       <c r="AK68" t="n">
-        <v>0.03850564122056568</v>
+        <v>0.03627448048536463</v>
       </c>
       <c r="AL68" t="n">
         <v>-8.47625135836987</v>
@@ -9086,7 +9086,7 @@
         <v>0.1998147055052133</v>
       </c>
       <c r="AK71" t="n">
-        <v>0.6738601497009131</v>
+        <v>0.6969491669194033</v>
       </c>
       <c r="AL71" t="n">
         <v>-9.194569786479338</v>
@@ -9207,7 +9207,7 @@
         <v>-0.03295218173088205</v>
       </c>
       <c r="AK72" t="n">
-        <v>-1.922332155961165</v>
+        <v>-2.431102857870564</v>
       </c>
       <c r="AL72" t="n">
         <v>-12.08611100398902</v>
@@ -9570,7 +9570,7 @@
         <v>0.3154337569703177</v>
       </c>
       <c r="AK75" t="n">
-        <v>1.017213229348135</v>
+        <v>1.013308028303126</v>
       </c>
       <c r="AL75" t="n">
         <v>-7.191024390570621</v>
@@ -9691,7 +9691,7 @@
         <v>0.1392001608208503</v>
       </c>
       <c r="AK76" t="n">
-        <v>0.2069613897733393</v>
+        <v>-0.07519723739709405</v>
       </c>
       <c r="AL76" t="n">
         <v>-10.69200272547526</v>
@@ -9933,7 +9933,7 @@
         <v>0.2026259369483401</v>
       </c>
       <c r="AK78" t="n">
-        <v>0.4740643802378544</v>
+        <v>0.4704006628639727</v>
       </c>
       <c r="AL78" t="n">
         <v>-6.203589031298053</v>
@@ -10296,7 +10296,7 @@
         <v>0.2286552076181862</v>
       </c>
       <c r="AK81" t="n">
-        <v>0.03202795922359074</v>
+        <v>0.02871676232132448</v>
       </c>
       <c r="AL81" t="n">
         <v>-9.227716404410117</v>
@@ -10417,7 +10417,7 @@
         <v>-0.03223518003632108</v>
       </c>
       <c r="AK82" t="n">
-        <v>-0.07565457262621215</v>
+        <v>-0.07779048644755447</v>
       </c>
       <c r="AL82" t="n">
         <v>-9.437435407552986</v>
@@ -10780,7 +10780,7 @@
         <v>-0.05112431594338047</v>
       </c>
       <c r="AK85" t="n">
-        <v>-0.2291547991476948</v>
+        <v>-0.7647301797721917</v>
       </c>
       <c r="AL85" t="n">
         <v>-9.711890026635315</v>
@@ -10901,7 +10901,7 @@
         <v>0.2322621447911732</v>
       </c>
       <c r="AK86" t="n">
-        <v>-0.239140134411506</v>
+        <v>-0.2419153657985639</v>
       </c>
       <c r="AL86" t="n">
         <v>-10.44853568355692</v>
@@ -11022,7 +11022,7 @@
         <v>0.2967957069782546</v>
       </c>
       <c r="AK87" t="n">
-        <v>0.9359039419405358</v>
+        <v>0.9093219155000927</v>
       </c>
       <c r="AL87" t="n">
         <v>-7.847390299979629</v>
@@ -11143,7 +11143,7 @@
         <v>0.01084298328904704</v>
       </c>
       <c r="AK88" t="n">
-        <v>-0.06477688472017636</v>
+        <v>-0.927902055791858</v>
       </c>
       <c r="AL88" t="n">
         <v>-9.090333260003838</v>
@@ -11264,7 +11264,7 @@
         <v>0.1915188804052421</v>
       </c>
       <c r="AK89" t="n">
-        <v>0.7838314525462468</v>
+        <v>0.7753211642599774</v>
       </c>
       <c r="AL89" t="n">
         <v>-8.988068396175153</v>
@@ -11506,7 +11506,7 @@
         <v>0.2126870273645982</v>
       </c>
       <c r="AK91" t="n">
-        <v>0.4500909457922981</v>
+        <v>0.4472669909700842</v>
       </c>
       <c r="AL91" t="n">
         <v>-6.932843760220323</v>
@@ -11627,7 +11627,7 @@
         <v>0.194654101420828</v>
       </c>
       <c r="AK92" t="n">
-        <v>0.236010380991393</v>
+        <v>0.1599823474581356</v>
       </c>
       <c r="AL92" t="n">
         <v>-6.77061848153161</v>
@@ -11990,7 +11990,7 @@
         <v>0.2273493467500137</v>
       </c>
       <c r="AK95" t="n">
-        <v>-0.2001758181916864</v>
+        <v>-0.2103242957121566</v>
       </c>
       <c r="AL95" t="n">
         <v>-12.07148806529311</v>
@@ -12111,7 +12111,7 @@
         <v>0.06605395394971005</v>
       </c>
       <c r="AK96" t="n">
-        <v>-0.1832989925281542</v>
+        <v>-0.1862750507847621</v>
       </c>
       <c r="AL96" t="n">
         <v>-8.93409847828973</v>
@@ -12353,7 +12353,7 @@
         <v>0.1915336305466101</v>
       </c>
       <c r="AK98" t="n">
-        <v>-0.6947363352277115</v>
+        <v>-0.8313320885949088</v>
       </c>
       <c r="AL98" t="n">
         <v>-8.728040149512106</v>
@@ -12474,7 +12474,7 @@
         <v>0.1244443379331433</v>
       </c>
       <c r="AK99" t="n">
-        <v>0.03190052528939933</v>
+        <v>-0.07130532420167862</v>
       </c>
       <c r="AL99" t="n">
         <v>-9.435032822957849</v>
@@ -12716,7 +12716,7 @@
         <v>0.08570066372316699</v>
       </c>
       <c r="AK101" t="n">
-        <v>-1.690380889819217</v>
+        <v>-1.7706891639748</v>
       </c>
       <c r="AL101" t="n">
         <v>-9.883752427493629</v>
@@ -12837,7 +12837,7 @@
         <v>-0.01038379854719894</v>
       </c>
       <c r="AK102" t="n">
-        <v>-0.6618025141514056</v>
+        <v>-1.277990077086041</v>
       </c>
       <c r="AL102" t="n">
         <v>-10.83292125954528</v>
@@ -13442,7 +13442,7 @@
         <v>0.2587909806757508</v>
       </c>
       <c r="AK107" t="n">
-        <v>0.6624955272150921</v>
+        <v>0.6519024537176685</v>
       </c>
       <c r="AL107" t="n">
         <v>-7.408550219087493</v>
@@ -13805,7 +13805,7 @@
         <v>-0.0077995536038212</v>
       </c>
       <c r="AK110" t="n">
-        <v>-0.8064675038036804</v>
+        <v>-0.8083417276770196</v>
       </c>
       <c r="AL110" t="n">
         <v>-11.3857516698281</v>
@@ -13926,7 +13926,7 @@
         <v>-0.0849532940945425</v>
       </c>
       <c r="AK111" t="n">
-        <v>-1.769056998458541</v>
+        <v>-1.796775905961965</v>
       </c>
       <c r="AL111" t="n">
         <v>-10.02555049525445</v>
@@ -14047,7 +14047,7 @@
         <v>0.1809284910565726</v>
       </c>
       <c r="AK112" t="n">
-        <v>0.4883812894076493</v>
+        <v>0.4808921919420336</v>
       </c>
       <c r="AL112" t="n">
         <v>-10.73148231703463</v>
@@ -14168,7 +14168,7 @@
         <v>0.167486286217453</v>
       </c>
       <c r="AK113" t="n">
-        <v>0.2827112801088982</v>
+        <v>0.281105990775068</v>
       </c>
       <c r="AL113" t="n">
         <v>-7.757499951832068</v>
@@ -14410,7 +14410,7 @@
         <v>0.2140602774625162</v>
       </c>
       <c r="AK115" t="n">
-        <v>0.1942724280208897</v>
+        <v>0.1676729881882217</v>
       </c>
       <c r="AL115" t="n">
         <v>-9.037867117110411</v>
@@ -14894,7 +14894,7 @@
         <v>-0.0007541660549133119</v>
       </c>
       <c r="AK119" t="n">
-        <v>-0.1615740434874051</v>
+        <v>-0.3078273142744736</v>
       </c>
       <c r="AL119" t="n">
         <v>-9.633210722718722</v>
@@ -15015,7 +15015,7 @@
         <v>0.1456398247338927</v>
       </c>
       <c r="AK120" t="n">
-        <v>-0.277083521616655</v>
+        <v>-0.394347883671995</v>
       </c>
       <c r="AL120" t="n">
         <v>-5.863074600513191</v>
@@ -15136,7 +15136,7 @@
         <v>0.343579444965681</v>
       </c>
       <c r="AK121" t="n">
-        <v>0.3928658736647334</v>
+        <v>0.251187010995414</v>
       </c>
       <c r="AL121" t="n">
         <v>-10.20011001865757</v>
@@ -15257,7 +15257,7 @@
         <v>0.2265433791635344</v>
       </c>
       <c r="AK122" t="n">
-        <v>0.1749270384331091</v>
+        <v>0.1708853687452332</v>
       </c>
       <c r="AL122" t="n">
         <v>-7.297366970903406</v>
@@ -15378,7 +15378,7 @@
         <v>0.2221951046093984</v>
       </c>
       <c r="AK123" t="n">
-        <v>-0.04350845434406488</v>
+        <v>-0.04708365034770719</v>
       </c>
       <c r="AL123" t="n">
         <v>-9.157683564752116</v>
@@ -15620,7 +15620,7 @@
         <v>0.1787688962397133</v>
       </c>
       <c r="AK125" t="n">
-        <v>-1.73137054663411</v>
+        <v>-1.728313629093525</v>
       </c>
       <c r="AL125" t="n">
         <v>-9.582999567801535</v>
@@ -15741,7 +15741,7 @@
         <v>0.1818835138933887</v>
       </c>
       <c r="AK126" t="n">
-        <v>-0.04048826020188542</v>
+        <v>-0.06403046834052387</v>
       </c>
       <c r="AL126" t="n">
         <v>-10.6921763663886</v>
@@ -15862,7 +15862,7 @@
         <v>0.2778761717435449</v>
       </c>
       <c r="AK127" t="n">
-        <v>-0.2741244260707029</v>
+        <v>-0.3069045578505933</v>
       </c>
       <c r="AL127" t="n">
         <v>-13.24470743249028</v>
@@ -16104,7 +16104,7 @@
         <v>0.2904816890669009</v>
       </c>
       <c r="AK129" t="n">
-        <v>0.2421005222952567</v>
+        <v>0.2404941047732678</v>
       </c>
       <c r="AL129" t="n">
         <v>-9.105056727821022</v>
@@ -16225,7 +16225,7 @@
         <v>0.01253370692536285</v>
       </c>
       <c r="AK130" t="n">
-        <v>0.3186734884473857</v>
+        <v>0.3147184981613569</v>
       </c>
       <c r="AL130" t="n">
         <v>-9.326523330763616</v>
@@ -16346,7 +16346,7 @@
         <v>0.2893717281207434</v>
       </c>
       <c r="AK131" t="n">
-        <v>0.7267632602315632</v>
+        <v>0.6481522556954038</v>
       </c>
       <c r="AL131" t="n">
         <v>-8.523899565585751</v>
@@ -16467,7 +16467,7 @@
         <v>0.2243305446669307</v>
       </c>
       <c r="AK132" t="n">
-        <v>-0.02505799165947571</v>
+        <v>-0.02673093086952361</v>
       </c>
       <c r="AL132" t="n">
         <v>-7.439336016482929</v>
@@ -16588,7 +16588,7 @@
         <v>0.1975600018718598</v>
       </c>
       <c r="AK133" t="n">
-        <v>0.9129389582584775</v>
+        <v>0.8948848096238828</v>
       </c>
       <c r="AL133" t="n">
         <v>-9.088635286416935</v>
@@ -16709,7 +16709,7 @@
         <v>0.2811669469844215</v>
       </c>
       <c r="AK134" t="n">
-        <v>0.4012676713478367</v>
+        <v>0.3928838871229469</v>
       </c>
       <c r="AL134" t="n">
         <v>-7.833305169472409</v>
@@ -17072,7 +17072,7 @@
         <v>0.004627323146514133</v>
       </c>
       <c r="AK137" t="n">
-        <v>0.4528436830226715</v>
+        <v>0.4140787321128346</v>
       </c>
       <c r="AL137" t="n">
         <v>-10.28094554376941</v>
@@ -17193,7 +17193,7 @@
         <v>-0.02887904404389346</v>
       </c>
       <c r="AK138" t="n">
-        <v>-1.562321564176096</v>
+        <v>-2.683715764195747</v>
       </c>
       <c r="AL138" t="n">
         <v>-10.98654883881618</v>
@@ -17314,7 +17314,7 @@
         <v>-0.1336391688720518</v>
       </c>
       <c r="AK139" t="n">
-        <v>-0.9619051524862468</v>
+        <v>-1.206569792703051</v>
       </c>
       <c r="AL139" t="n">
         <v>-9.959909934547431</v>
@@ -17435,7 +17435,7 @@
         <v>0.004016343413390189</v>
       </c>
       <c r="AK140" t="n">
-        <v>0.6510389265861257</v>
+        <v>0.1425565368295368</v>
       </c>
       <c r="AL140" t="n">
         <v>-10.49649654345403</v>
@@ -17556,7 +17556,7 @@
         <v>0.2457304037119557</v>
       </c>
       <c r="AK141" t="n">
-        <v>0.1334385701060605</v>
+        <v>0.1302388615197772</v>
       </c>
       <c r="AL141" t="n">
         <v>-9.146367046733465</v>
@@ -17677,7 +17677,7 @@
         <v>-0.07024608750793672</v>
       </c>
       <c r="AK142" t="n">
-        <v>-0.2705649505105956</v>
+        <v>-0.2745717552201338</v>
       </c>
       <c r="AL142" t="n">
         <v>-10.84148915726051</v>
@@ -17798,7 +17798,7 @@
         <v>0.04795996658599886</v>
       </c>
       <c r="AK143" t="n">
-        <v>-0.7635998032824592</v>
+        <v>-0.7717199703195817</v>
       </c>
       <c r="AL143" t="n">
         <v>-9.144541282086077</v>
@@ -17919,7 +17919,7 @@
         <v>0.2811015411984937</v>
       </c>
       <c r="AK144" t="n">
-        <v>-0.1476926437524183</v>
+        <v>-0.1491172619952754</v>
       </c>
       <c r="AL144" t="n">
         <v>-12.87431675816669</v>
@@ -18040,7 +18040,7 @@
         <v>0.1794319315472532</v>
       </c>
       <c r="AK145" t="n">
-        <v>0.02288228094447051</v>
+        <v>-0.03405750164785184</v>
       </c>
       <c r="AL145" t="n">
         <v>-9.810732322379135</v>
@@ -18161,7 +18161,7 @@
         <v>0.1467939995270025</v>
       </c>
       <c r="AK146" t="n">
-        <v>0.0860746342871348</v>
+        <v>0.06436714771638037</v>
       </c>
       <c r="AL146" t="n">
         <v>-9.929866801649126</v>
@@ -18524,7 +18524,7 @@
         <v>0.2177384989295042</v>
       </c>
       <c r="AK149" t="n">
-        <v>-0.290888417927715</v>
+        <v>-0.2891514461210318</v>
       </c>
       <c r="AL149" t="n">
         <v>-9.233501954532898</v>
@@ -18645,7 +18645,7 @@
         <v>-0.02818456282930008</v>
       </c>
       <c r="AK150" t="n">
-        <v>0.04260854451087155</v>
+        <v>0.04126160151541105</v>
       </c>
       <c r="AL150" t="n">
         <v>-14.1040491978401</v>
@@ -18766,7 +18766,7 @@
         <v>-0.0420318953441734</v>
       </c>
       <c r="AK151" t="n">
-        <v>0.06921747851929752</v>
+        <v>-0.04184343050141345</v>
       </c>
       <c r="AL151" t="n">
         <v>-11.55488254016868</v>
@@ -19008,7 +19008,7 @@
         <v>0.1238008829510981</v>
       </c>
       <c r="AK153" t="n">
-        <v>-0.1500102920644746</v>
+        <v>-0.1654015016949656</v>
       </c>
       <c r="AL153" t="n">
         <v>-8.995593587954794</v>
@@ -19250,7 +19250,7 @@
         <v>0.2160151335558353</v>
       </c>
       <c r="AK155" t="n">
-        <v>0.24652158563133</v>
+        <v>0.1924262620971286</v>
       </c>
       <c r="AL155" t="n">
         <v>-9.191514744549854</v>
@@ -19492,7 +19492,7 @@
         <v>-0.05252915257097401</v>
       </c>
       <c r="AK157" t="n">
-        <v>-0.9416178469376431</v>
+        <v>-0.944200788308289</v>
       </c>
       <c r="AL157" t="n">
         <v>-10.43427905361962</v>
@@ -19734,7 +19734,7 @@
         <v>0.3209978483486542</v>
       </c>
       <c r="AK159" t="n">
-        <v>0.5561138357732739</v>
+        <v>0.5321797191327672</v>
       </c>
       <c r="AL159" t="n">
         <v>-5.8963406328643</v>
@@ -19976,7 +19976,7 @@
         <v>-0.1228790364151159</v>
       </c>
       <c r="AK161" t="n">
-        <v>-0.5182750150049112</v>
+        <v>-0.6548047897723207</v>
       </c>
       <c r="AL161" t="n">
         <v>-11.4502213929782</v>
@@ -20581,7 +20581,7 @@
         <v>0.2591291549157473</v>
       </c>
       <c r="AK166" t="n">
-        <v>0.8696106344380522</v>
+        <v>0.8670662807905248</v>
       </c>
       <c r="AL166" t="n">
         <v>-9.642205030561344</v>
@@ -20702,7 +20702,7 @@
         <v>0.05074028835899175</v>
       </c>
       <c r="AK167" t="n">
-        <v>1.221143593899797</v>
+        <v>1.212061784103416</v>
       </c>
       <c r="AL167" t="n">
         <v>-8.295054975684208</v>
@@ -20823,7 +20823,7 @@
         <v>-0.1468047655011192</v>
       </c>
       <c r="AK168" t="n">
-        <v>-1.123725441799666</v>
+        <v>-1.186252107208071</v>
       </c>
       <c r="AL168" t="n">
         <v>-10.76958255958851</v>
@@ -20944,7 +20944,7 @@
         <v>0.03559215304512069</v>
       </c>
       <c r="AK169" t="n">
-        <v>-0.4736179036389535</v>
+        <v>-0.1145011618341881</v>
       </c>
       <c r="AL169" t="n">
         <v>-9.609318240946729</v>
@@ -21065,7 +21065,7 @@
         <v>-0.04612204868726691</v>
       </c>
       <c r="AK170" t="n">
-        <v>0.2374364959752935</v>
+        <v>0.13960191438372</v>
       </c>
       <c r="AL170" t="n">
         <v>-12.35643114738403</v>
@@ -21186,7 +21186,7 @@
         <v>0.1530485017959816</v>
       </c>
       <c r="AK171" t="n">
-        <v>0.3593691686750704</v>
+        <v>0.3583320470313792</v>
       </c>
       <c r="AL171" t="n">
         <v>-11.48594968308679</v>

--- a/input/comp_mrs_db_dog.xlsx
+++ b/input/comp_mrs_db_dog.xlsx
@@ -2310,7 +2310,7 @@
         <v>0.1539807218308993</v>
       </c>
       <c r="AK15" t="n">
-        <v>-0.2442516445297177</v>
+        <v>-0.2361937233542203</v>
       </c>
       <c r="AL15" t="n">
         <v>-8.451166396474795</v>
@@ -2552,7 +2552,7 @@
         <v>0.2962130218452153</v>
       </c>
       <c r="AK17" t="n">
-        <v>0.8760989568824644</v>
+        <v>0.9087642915481414</v>
       </c>
       <c r="AL17" t="n">
         <v>-7.257492808936883</v>
@@ -2915,7 +2915,7 @@
         <v>-0.09412395573830512</v>
       </c>
       <c r="AK20" t="n">
-        <v>-0.1702074627298488</v>
+        <v>-0.1674598846420003</v>
       </c>
       <c r="AL20" t="n">
         <v>-11.14960785993486</v>
@@ -3278,7 +3278,7 @@
         <v>0.2036595958697739</v>
       </c>
       <c r="AK23" t="n">
-        <v>0.0006344048952334065</v>
+        <v>0.198583478680728</v>
       </c>
       <c r="AL23" t="n">
         <v>-13.12398390372212</v>
@@ -4730,7 +4730,7 @@
         <v>0.3488921036616279</v>
       </c>
       <c r="AK35" t="n">
-        <v>1.043570263957005</v>
+        <v>1.045020814677251</v>
       </c>
       <c r="AL35" t="n">
         <v>-9.029699704606241</v>
@@ -6182,7 +6182,7 @@
         <v>-0.02000160997978494</v>
       </c>
       <c r="AK47" t="n">
-        <v>-0.3513754254930812</v>
+        <v>0.3723286718929898</v>
       </c>
       <c r="AL47" t="n">
         <v>-6.722520401440502</v>
@@ -6666,7 +6666,7 @@
         <v>0.1560580424000802</v>
       </c>
       <c r="AK51" t="n">
-        <v>0.003887327139737095</v>
+        <v>0.0064879006702625</v>
       </c>
       <c r="AL51" t="n">
         <v>-11.44397767834532</v>
@@ -6787,7 +6787,7 @@
         <v>-0.2077082796478813</v>
       </c>
       <c r="AK52" t="n">
-        <v>-0.8199392948410563</v>
+        <v>-0.8161424923930423</v>
       </c>
       <c r="AL52" t="n">
         <v>-12.57711222015901</v>
@@ -6908,7 +6908,7 @@
         <v>0.2569478745805414</v>
       </c>
       <c r="AK53" t="n">
-        <v>-0.1849290071183466</v>
+        <v>-0.1819545794796578</v>
       </c>
       <c r="AL53" t="n">
         <v>-8.079684942188528</v>
@@ -7029,7 +7029,7 @@
         <v>0.1816933742245348</v>
       </c>
       <c r="AK54" t="n">
-        <v>-0.00330345636574594</v>
+        <v>0.0001117657469750415</v>
       </c>
       <c r="AL54" t="n">
         <v>-11.2134410767811</v>
@@ -7392,7 +7392,7 @@
         <v>0.1752452879725516</v>
       </c>
       <c r="AK57" t="n">
-        <v>0.1231134291798312</v>
+        <v>0.1248089669073825</v>
       </c>
       <c r="AL57" t="n">
         <v>-7.644414549991064</v>
@@ -7634,7 +7634,7 @@
         <v>0.0001785114789394253</v>
       </c>
       <c r="AK59" t="n">
-        <v>-3.080117332062254</v>
+        <v>-3.074226453257253</v>
       </c>
       <c r="AL59" t="n">
         <v>-11.40970585399761</v>
@@ -8965,7 +8965,7 @@
         <v>0.0563064883312854</v>
       </c>
       <c r="AK70" t="n">
-        <v>0.1105711794503023</v>
+        <v>0.1247704875268558</v>
       </c>
       <c r="AL70" t="n">
         <v>-8.88233198388316</v>
@@ -9328,7 +9328,7 @@
         <v>0.03135610442776928</v>
       </c>
       <c r="AK73" t="n">
-        <v>0.01166214964743761</v>
+        <v>0.08545147540766225</v>
       </c>
       <c r="AL73" t="n">
         <v>-11.93633320006451</v>
@@ -9812,7 +9812,7 @@
         <v>0.1641204189601657</v>
       </c>
       <c r="AK77" t="n">
-        <v>0.6081348643132892</v>
+        <v>0.6220035124417286</v>
       </c>
       <c r="AL77" t="n">
         <v>-7.73280622254592</v>
@@ -10175,7 +10175,7 @@
         <v>0.05139794557285706</v>
       </c>
       <c r="AK80" t="n">
-        <v>0.01756079226143276</v>
+        <v>0.02265103433439437</v>
       </c>
       <c r="AL80" t="n">
         <v>-11.40993644727429</v>
@@ -10417,7 +10417,7 @@
         <v>-0.03223518003632108</v>
       </c>
       <c r="AK82" t="n">
-        <v>-0.07779048644755447</v>
+        <v>-0.07565457262621215</v>
       </c>
       <c r="AL82" t="n">
         <v>-9.437435407552986</v>
@@ -10780,7 +10780,7 @@
         <v>-0.05112431594338047</v>
       </c>
       <c r="AK85" t="n">
-        <v>-0.7647301797721917</v>
+        <v>-0.7481499317802403</v>
       </c>
       <c r="AL85" t="n">
         <v>-9.711890026635315</v>
@@ -11385,7 +11385,7 @@
         <v>0.2306404980166452</v>
       </c>
       <c r="AK90" t="n">
-        <v>0.7432234474006838</v>
+        <v>0.7459726778380995</v>
       </c>
       <c r="AL90" t="n">
         <v>-5.614459330744943</v>
@@ -11748,7 +11748,7 @@
         <v>0.2608321684737274</v>
       </c>
       <c r="AK93" t="n">
-        <v>0.5049059281702621</v>
+        <v>0.5087229195352737</v>
       </c>
       <c r="AL93" t="n">
         <v>-5.873510411949113</v>
@@ -13805,7 +13805,7 @@
         <v>-0.0077995536038212</v>
       </c>
       <c r="AK110" t="n">
-        <v>-0.8083417276770196</v>
+        <v>-0.804601333512558</v>
       </c>
       <c r="AL110" t="n">
         <v>-11.3857516698281</v>
@@ -13926,7 +13926,7 @@
         <v>-0.0849532940945425</v>
       </c>
       <c r="AK111" t="n">
-        <v>-1.796775905961965</v>
+        <v>-1.685359506564677</v>
       </c>
       <c r="AL111" t="n">
         <v>-10.02555049525445</v>
@@ -14410,7 +14410,7 @@
         <v>0.2140602774625162</v>
       </c>
       <c r="AK115" t="n">
-        <v>0.1676729881882217</v>
+        <v>0.1739777147364865</v>
       </c>
       <c r="AL115" t="n">
         <v>-9.037867117110411</v>
@@ -14894,7 +14894,7 @@
         <v>-0.0007541660549133119</v>
       </c>
       <c r="AK119" t="n">
-        <v>-0.3078273142744736</v>
+        <v>0.04039942665221888</v>
       </c>
       <c r="AL119" t="n">
         <v>-9.633210722718722</v>
@@ -15499,7 +15499,7 @@
         <v>0.1316139940554002</v>
       </c>
       <c r="AK124" t="n">
-        <v>0.008083704509054719</v>
+        <v>0.0101069761950409</v>
       </c>
       <c r="AL124" t="n">
         <v>-10.68605617810361</v>
@@ -15862,7 +15862,7 @@
         <v>0.2778761717435449</v>
       </c>
       <c r="AK127" t="n">
-        <v>-0.3069045578505933</v>
+        <v>-0.3054881633986597</v>
       </c>
       <c r="AL127" t="n">
         <v>-13.24470743249028</v>
@@ -16225,7 +16225,7 @@
         <v>0.01253370692536285</v>
       </c>
       <c r="AK130" t="n">
-        <v>0.3147184981613569</v>
+        <v>0.3167004954033975</v>
       </c>
       <c r="AL130" t="n">
         <v>-9.326523330763616</v>
@@ -16467,7 +16467,7 @@
         <v>0.2243305446669307</v>
       </c>
       <c r="AK132" t="n">
-        <v>-0.02673093086952361</v>
+        <v>-0.02505799165947572</v>
       </c>
       <c r="AL132" t="n">
         <v>-7.439336016482929</v>
@@ -16709,7 +16709,7 @@
         <v>0.2811669469844215</v>
       </c>
       <c r="AK134" t="n">
-        <v>0.3928838871229469</v>
+        <v>0.3956965028851673</v>
       </c>
       <c r="AL134" t="n">
         <v>-7.833305169472409</v>
@@ -16830,7 +16830,7 @@
         <v>-0.1395954448533699</v>
       </c>
       <c r="AK135" t="n">
-        <v>-0.3023880219403225</v>
+        <v>-0.3000403515826187</v>
       </c>
       <c r="AL135" t="n">
         <v>-10.88021305327009</v>
@@ -17072,7 +17072,7 @@
         <v>0.004627323146514133</v>
       </c>
       <c r="AK137" t="n">
-        <v>0.4140787321128346</v>
+        <v>0.8218868871898892</v>
       </c>
       <c r="AL137" t="n">
         <v>-10.28094554376941</v>
@@ -17798,7 +17798,7 @@
         <v>0.04795996658599886</v>
       </c>
       <c r="AK143" t="n">
-        <v>-0.7717199703195817</v>
+        <v>-0.6909274509321809</v>
       </c>
       <c r="AL143" t="n">
         <v>-9.144541282086077</v>
@@ -18161,7 +18161,7 @@
         <v>0.1467939995270025</v>
       </c>
       <c r="AK146" t="n">
-        <v>0.06436714771638037</v>
+        <v>0.06806910517548249</v>
       </c>
       <c r="AL146" t="n">
         <v>-9.929866801649126</v>
@@ -18403,7 +18403,7 @@
         <v>0.02553700368941194</v>
       </c>
       <c r="AK148" t="n">
-        <v>0.7700781547136075</v>
+        <v>0.7734460882229646</v>
       </c>
       <c r="AL148" t="n">
         <v>-8.743028378214424</v>
@@ -18887,7 +18887,7 @@
         <v>0.2257968305255448</v>
       </c>
       <c r="AK152" t="n">
-        <v>0.7242162743359597</v>
+        <v>0.7262242046865546</v>
       </c>
       <c r="AL152" t="n">
         <v>-10.50896334152284</v>
@@ -19250,7 +19250,7 @@
         <v>0.2160151335558353</v>
       </c>
       <c r="AK155" t="n">
-        <v>0.1924262620971286</v>
+        <v>0.2023313492158028</v>
       </c>
       <c r="AL155" t="n">
         <v>-9.191514744549854</v>
@@ -19492,7 +19492,7 @@
         <v>-0.05252915257097401</v>
       </c>
       <c r="AK157" t="n">
-        <v>-0.944200788308289</v>
+        <v>-0.9416178469376432</v>
       </c>
       <c r="AL157" t="n">
         <v>-10.43427905361962</v>
@@ -20460,7 +20460,7 @@
         <v>0.2534432936141042</v>
       </c>
       <c r="AK165" t="n">
-        <v>0.05916469469561396</v>
+        <v>0.06671454987488046</v>
       </c>
       <c r="AL165" t="n">
         <v>-8.912998047912499</v>
@@ -20581,7 +20581,7 @@
         <v>0.2591291549157473</v>
       </c>
       <c r="AK166" t="n">
-        <v>0.8670662807905248</v>
+        <v>0.8872597965282166</v>
       </c>
       <c r="AL166" t="n">
         <v>-9.642205030561344</v>
@@ -20702,7 +20702,7 @@
         <v>0.05074028835899175</v>
       </c>
       <c r="AK167" t="n">
-        <v>1.212061784103416</v>
+        <v>1.515368923590123</v>
       </c>
       <c r="AL167" t="n">
         <v>-8.295054975684208</v>
@@ -20823,7 +20823,7 @@
         <v>-0.1468047655011192</v>
       </c>
       <c r="AK168" t="n">
-        <v>-1.186252107208071</v>
+        <v>-1.160969573976397</v>
       </c>
       <c r="AL168" t="n">
         <v>-10.76958255958851</v>
@@ -20944,7 +20944,7 @@
         <v>0.03559215304512069</v>
       </c>
       <c r="AK169" t="n">
-        <v>-0.1145011618341881</v>
+        <v>-0.1123810966921291</v>
       </c>
       <c r="AL169" t="n">
         <v>-9.609318240946729</v>
@@ -21065,7 +21065,7 @@
         <v>-0.04612204868726691</v>
       </c>
       <c r="AK170" t="n">
-        <v>0.13960191438372</v>
+        <v>0.1462427124229041</v>
       </c>
       <c r="AL170" t="n">
         <v>-12.35643114738403</v>
@@ -21186,7 +21186,7 @@
         <v>0.1530485017959816</v>
       </c>
       <c r="AK171" t="n">
-        <v>0.3583320470313792</v>
+        <v>0.3634930641779162</v>
       </c>
       <c r="AL171" t="n">
         <v>-11.48594968308679</v>
